--- a/data/osteoporosis_rate.xlsx
+++ b/data/osteoporosis_rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4898e5cc837f6cd5/Documents/Bristol/Coeliac review HTA/Coeliac_screening/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:40009_{B95B1224-6706-4F26-80FC-87F90435EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF09DD8-DD1C-482A-8D82-C7EF9F4B8228}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:40009_{B95B1224-6706-4F26-80FC-87F90435EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2630EA07-5C6E-4664-B0BA-E6C1211A8447}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mixed" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>Age group</t>
   </si>
@@ -116,68 +116,101 @@
     <t>0.00 (0.00-0.00)</t>
   </si>
   <si>
-    <t>0.01 (0.00-0.10)</t>
-  </si>
-  <si>
-    <t>0.05 (0.02-0.13)</t>
-  </si>
-  <si>
-    <t>0.11 (0.06-0.20)</t>
-  </si>
-  <si>
-    <t>0.35 (0.25-0.50)</t>
-  </si>
-  <si>
-    <t>1.10 (0.89-1.40)</t>
-  </si>
-  <si>
-    <t>2.20 (1.80-2.60)</t>
-  </si>
-  <si>
-    <t>4.00 (3.40-4.80)</t>
-  </si>
-  <si>
-    <t>6.00 (4.70-7.60)</t>
-  </si>
-  <si>
-    <t>4.90 (2.20-11.00)</t>
-  </si>
-  <si>
-    <t>0.03 (0.01-0.13)</t>
-  </si>
-  <si>
-    <t>0.05 (0.02-0.15)</t>
-  </si>
-  <si>
-    <t>0.13 (0.07-0.23)</t>
-  </si>
-  <si>
-    <t>0.42 (0.31-0.58)</t>
-  </si>
-  <si>
-    <t>1.10 (0.87-1.30)</t>
-  </si>
-  <si>
-    <t>3.60 (3.10-4.10)</t>
-  </si>
-  <si>
-    <t>8.40 (7.70-9.10)</t>
-  </si>
-  <si>
-    <t>15.00 (13.00-16.00)</t>
-  </si>
-  <si>
-    <t>20.00 (18.00-22.00)</t>
-  </si>
-  <si>
-    <t>16.00 (12.00-22.00)</t>
+    <t>0.02 (0.01-0.09)</t>
+  </si>
+  <si>
+    <t>0.03 (0.01-0.10)</t>
+  </si>
+  <si>
+    <t>0.16 (0.11-0.25)</t>
+  </si>
+  <si>
+    <t>0.42 (0.34-0.52)</t>
+  </si>
+  <si>
+    <t>1.40 (1.20-1.50)</t>
+  </si>
+  <si>
+    <t>3.90 (3.60-4.20)</t>
+  </si>
+  <si>
+    <t>7.50 (7.00-7.90)</t>
+  </si>
+  <si>
+    <t>13.00 (12.00-14.00)</t>
+  </si>
+  <si>
+    <t>21.00 (19.00-23.00)</t>
+  </si>
+  <si>
+    <t>27.00 (19.00-38.00)</t>
+  </si>
+  <si>
+    <t>0.02 (0.00-0.15)</t>
+  </si>
+  <si>
+    <t>0.04 (0.01-0.15)</t>
+  </si>
+  <si>
+    <t>0.10 (0.05-0.21)</t>
+  </si>
+  <si>
+    <t>0.17 (0.10-0.27)</t>
+  </si>
+  <si>
+    <t>0.55 (0.43-0.70)</t>
+  </si>
+  <si>
+    <t>1.20 (1.00-1.50)</t>
+  </si>
+  <si>
+    <t>2.70 (2.30-3.10)</t>
+  </si>
+  <si>
+    <t>4.80 (4.10-5.60)</t>
+  </si>
+  <si>
+    <t>9.60 (7.50-12.00)</t>
+  </si>
+  <si>
+    <t>5.90 (1.50-24.00)</t>
+  </si>
+  <si>
+    <t>0.02 (0.00-0.17)</t>
+  </si>
+  <si>
+    <t>0.03 (0.00-0.18)</t>
+  </si>
+  <si>
+    <t>0.24 (0.14-0.41)</t>
+  </si>
+  <si>
+    <t>0.66 (0.52-0.83)</t>
+  </si>
+  <si>
+    <t>2.20 (1.90-2.50)</t>
+  </si>
+  <si>
+    <t>6.60 (6.10-7.10)</t>
+  </si>
+  <si>
+    <t>12.00 (11.00-13.00)</t>
+  </si>
+  <si>
+    <t>20.00 (19.00-22.00)</t>
+  </si>
+  <si>
+    <t>29.00 (26.00-33.00)</t>
+  </si>
+  <si>
+    <t>36.00 (25.00-51.00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +351,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -661,10 +700,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,1086 +1064,1154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="17.62890625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <f>VALUE(LEFT(B2, FIND("(", B2) - 1))</f>
         <v>0.02</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>0.06</v>
+        <f>VALUE(SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("(", B2)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("-", B2)), ")", ""), ")"), ""))</f>
+        <v>0.01</v>
       </c>
       <c r="E2">
-        <f>B2/1000</f>
+        <f>VALUE(SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("-", B2)), ")", ""))</f>
+        <v>0.09</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F14" si="0">C2/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:G14" si="0">C2/1000</f>
-        <v>0</v>
-      </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999995E-5</v>
+        <f t="shared" ref="G2:G14" si="1">D2/1000</f>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H2">
-        <f>E2*1.4</f>
-        <v>2.8E-5</v>
+        <f t="shared" ref="H2:H14" si="2">E2/1000</f>
+        <v>8.9999999999999992E-5</v>
       </c>
       <c r="I2">
         <f>F2*1.4</f>
-        <v>0</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J2">
         <f>G2*1.4</f>
-        <v>8.3999999999999982E-5</v>
+        <v>1.4E-5</v>
       </c>
       <c r="K2">
-        <f>1-EXP(-H2)</f>
+        <f>H2*1.4</f>
+        <v>1.2599999999999997E-4</v>
+      </c>
+      <c r="L2">
+        <f>1-EXP(-I2)</f>
         <v>2.7999608003703713E-5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
+        <f>1-EXP(-K2)</f>
+        <v>1.2599206233343541E-4</v>
+      </c>
+      <c r="N2">
         <f>1-EXP(-J2)</f>
-        <v>8.3996472098779584E-5</v>
-      </c>
-      <c r="M2">
-        <f>1-EXP(-I2)</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>(L2-M2)/(2*1.96)</f>
-        <v>2.1427671453770304E-5</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" ref="O2:O11" si="1">(((1-K2)/(N2*N2))-(1/K2))*K2*K2</f>
-        <v>1.7073975845300278</v>
+        <v>1.3999902000461084E-5</v>
+      </c>
+      <c r="O2">
+        <f>(M2-N2)/(2*1.96)</f>
+        <v>2.8569428656371002E-5</v>
       </c>
       <c r="P2" s="1">
-        <f>O2*((1/K2)-1)</f>
-        <v>60977.631466880208</v>
-      </c>
-      <c r="Q2">
-        <f>E2*2.59</f>
-        <v>5.1799999999999999E-5</v>
+        <f t="shared" ref="P2:P11" si="3">(((1-L2)/(O2*O2))-(1/L2))*L2*L2</f>
+        <v>0.96045267644141152</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>P2*((1/L2)-1)</f>
+        <v>34301.401077326598</v>
       </c>
       <c r="R2">
         <f>F2*2.59</f>
-        <v>0</v>
+        <v>5.1799999999999999E-5</v>
       </c>
       <c r="S2">
         <f>G2*2.59</f>
-        <v>1.5539999999999998E-4</v>
+        <v>2.5899999999999999E-5</v>
       </c>
       <c r="T2">
-        <f>1-EXP(-Q2)</f>
+        <f>H2*2.59</f>
+        <v>2.3309999999999997E-4</v>
+      </c>
+      <c r="U2">
+        <f>1-EXP(-R2)</f>
         <v>5.1798658403212627E-5</v>
       </c>
-      <c r="U2">
+      <c r="V2">
+        <f>1-EXP(-T2)</f>
+        <v>2.3307283430584746E-4</v>
+      </c>
+      <c r="W2">
         <f>1-EXP(-S2)</f>
-        <v>1.5538792604541385E-4</v>
-      </c>
-      <c r="V2">
-        <f>1-EXP(-R2)</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>(U2-V2)/(2*1.96)</f>
-        <v>3.9639777052401493E-5</v>
-      </c>
-      <c r="X2" s="1">
-        <f t="shared" ref="X2:X11" si="2">(((1-T2)/(W2*W2))-(1/T2))*T2*T2</f>
-        <v>1.7074144205282853</v>
+        <v>2.5899664597872629E-5</v>
+      </c>
+      <c r="X2">
+        <f>(V2-W2)/(2*1.96)</f>
+        <v>5.2850298394891543E-5</v>
       </c>
       <c r="Y2" s="1">
-        <f t="shared" ref="Y2:Y11" si="3">X2*((1/T2)-1)</f>
-        <v>32960.814650096669</v>
+        <f t="shared" ref="Y2:Y11" si="4">(((1-U2)/(X2*X2))-(1/U2))*U2*U2</f>
+        <v>0.96049745587814939</v>
+      </c>
+      <c r="Z2" s="1">
+        <f t="shared" ref="Z2:Z11" si="5">Y2*((1/U2)-1)</f>
+        <v>18541.941683550765</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C14" si="6">VALUE(LEFT(B3, FIND("(", B3) - 1))</f>
         <v>0.03</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <f>VALUE(SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("(", B3)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("-", B3)), ")", ""), ")"), ""))</f>
         <v>0.01</v>
       </c>
-      <c r="D3">
-        <v>0.08</v>
-      </c>
       <c r="E3">
-        <f t="shared" ref="E3:E14" si="4">B3/1000</f>
-        <v>2.9999999999999997E-5</v>
+        <f t="shared" ref="E3:E14" si="7">VALUE(SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("-", B3)), ")", ""))</f>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
       <c r="H3">
-        <f t="shared" ref="H3:J14" si="5">E3*1.4</f>
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:K14" si="8">F3*1.4</f>
         <v>4.1999999999999991E-5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <f t="shared" si="8"/>
+        <v>1.4E-5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="8"/>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L14" si="9">1-EXP(-I3)</f>
+        <v>4.1999118012392422E-5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M14" si="10">1-EXP(-K3)</f>
+        <v>1.3999020045729615E-4</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N14" si="11">1-EXP(-J3)</f>
+        <v>1.3999902000461084E-5</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O14" si="12">(M3-N3)/(2*1.96)</f>
+        <v>3.2140382259396704E-5</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7074552972836641</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q11" si="13">P3*((1/L3)-1)</f>
+        <v>40652.84383265728</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:T14" si="14">F3*2.59</f>
+        <v>7.7699999999999991E-5</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="14"/>
+        <v>2.5899999999999999E-5</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="14"/>
+        <v>2.5900000000000001E-4</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U14" si="15">1-EXP(-R3)</f>
+        <v>7.7696981433228451E-5</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V14" si="16">1-EXP(-T3)</f>
+        <v>2.5896646239542687E-4</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W14" si="17">1-EXP(-S3)</f>
+        <v>2.5899664597872629E-5</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X14" si="18">(V3-W3)/(2*1.96)</f>
+        <v>5.9455815764682204E-5</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7075211936653614</v>
+      </c>
+      <c r="Z3" s="1">
         <f t="shared" si="5"/>
-        <v>1.4E-5</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="5"/>
-        <v>1.12E-4</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K14" si="6">1-EXP(-H3)</f>
-        <v>4.1999118012392422E-5</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L14" si="7">1-EXP(-J3)</f>
-        <v>1.1199372823411657E-4</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M14" si="8">1-EXP(-I3)</f>
-        <v>1.3999902000461084E-5</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N14" si="9">(L3-M3)/(2*1.96)</f>
-        <v>2.4998425059605993E-5</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8224765423353544</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P11" si="10">O3*((1/K3)-1)</f>
-        <v>67200.411208092264</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:S14" si="11">E3*2.59</f>
-        <v>7.7699999999999991E-5</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="11"/>
-        <v>2.5899999999999999E-5</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="11"/>
-        <v>2.0719999999999999E-4</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T14" si="12">1-EXP(-Q3)</f>
-        <v>7.7696981433228451E-5</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U14" si="13">1-EXP(-S3)</f>
-        <v>2.0717853556251331E-4</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V14" si="14">1-EXP(-R3)</f>
-        <v>2.5899664597872629E-5</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W14" si="15">(U3-V3)/(2*1.96)</f>
-        <v>4.6244609939959359E-5</v>
-      </c>
-      <c r="X3" s="1">
-        <f t="shared" si="2"/>
-        <v>2.8225416057095143</v>
-      </c>
-      <c r="Y3" s="1">
-        <f t="shared" si="3"/>
-        <v>36324.735539079338</v>
+        <v>21974.965988738993</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>0.09</v>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <f t="shared" si="6"/>
+        <v>0.16</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <f t="shared" ref="D4:D14" si="19">VALUE(SUBSTITUTE(RIGHT(B4, LEN(B4) - FIND("(", B4)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B4, LEN(B4) - FIND("-", B4)), ")", ""), ")"), ""))</f>
+        <v>0.11</v>
       </c>
       <c r="E4">
-        <f t="shared" si="4"/>
-        <v>8.9999999999999992E-5</v>
+        <f t="shared" si="7"/>
+        <v>0.25</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.1E-4</v>
       </c>
       <c r="H4">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="8"/>
+        <v>2.24E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="8"/>
+        <v>1.54E-4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="8"/>
+        <v>3.5E-4</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="9"/>
+        <v>2.2397491387315949E-4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="10"/>
+        <v>3.4993875714517397E-4</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="11"/>
+        <v>1.5398814260869642E-4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="12"/>
+        <v>4.9987401667468764E-5</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
+        <v>20.071300018640919</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="13"/>
+        <v>89593.982665005373</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="14"/>
+        <v>4.1439999999999999E-4</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="14"/>
+        <v>2.8489999999999999E-4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="14"/>
+        <v>6.4749999999999996E-4</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="15"/>
+        <v>4.1431414817938439E-4</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="16"/>
+        <v>6.4729041711242274E-4</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="17"/>
+        <v>2.8485941984890406E-4</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="18"/>
+        <v>9.245688705702008E-5</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="4"/>
+        <v>20.07206515432944</v>
+      </c>
+      <c r="Z4" s="1">
         <f t="shared" si="5"/>
-        <v>1.2599999999999997E-4</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="5"/>
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
-        <v>2.0999999999999998E-4</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="6"/>
-        <v>1.2599206233343541E-4</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="7"/>
-        <v>2.0997795154342747E-4</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="8"/>
-        <v>6.9997550057210312E-5</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="9"/>
-        <v>3.5709286093422742E-5</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="1"/>
-        <v>12.447006518922381</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="10"/>
-        <v>98779.542650588468</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="11"/>
-        <v>2.3309999999999997E-4</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="11"/>
-        <v>1.295E-4</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="11"/>
-        <v>3.8849999999999996E-4</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="12"/>
-        <v>2.3307283430584746E-4</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="13"/>
-        <v>3.8842454364695911E-4</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="14"/>
-        <v>1.2949161523689856E-4</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="15"/>
-        <v>6.6054318471954227E-5</v>
-      </c>
-      <c r="X4" s="1">
-        <f t="shared" si="2"/>
-        <v>12.447195674049937</v>
-      </c>
-      <c r="Y4" s="1">
-        <f t="shared" si="3"/>
-        <v>53392.299484139476</v>
+        <v>48426.415322572764</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>0.26</v>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>0.42</v>
       </c>
       <c r="D5">
-        <v>0.35</v>
+        <f t="shared" si="19"/>
+        <v>0.34</v>
       </c>
       <c r="E5">
-        <f t="shared" si="4"/>
-        <v>2.6000000000000003E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.52</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <v>4.1999999999999996E-4</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>3.5E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="H5">
+        <f t="shared" si="2"/>
+        <v>5.2000000000000006E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="8"/>
+        <v>5.8799999999999987E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="8"/>
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>7.2800000000000002E-4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="9"/>
+        <v>5.878271618778852E-4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="10"/>
+        <v>7.2773507229306755E-4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="11"/>
+        <v>4.7588672997289638E-4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="12"/>
+        <v>6.424702610208448E-5</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>83.663267806791254</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="13"/>
+        <v>142242.64152477679</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="14"/>
+        <v>1.0877999999999999E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="14"/>
+        <v>8.8060000000000005E-4</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="14"/>
+        <v>1.3468E-3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="15"/>
+        <v>1.0872085600555081E-3</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="16"/>
+        <v>1.3458934718963977E-3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="17"/>
+        <v>8.8021238560609394E-4</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="18"/>
+        <v>1.1879619548222036E-4</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="4"/>
+        <v>83.664764415913098</v>
+      </c>
+      <c r="Z5" s="1">
         <f t="shared" si="5"/>
-        <v>3.6400000000000001E-4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="5"/>
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>4.8999999999999998E-4</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="6"/>
-        <v>3.6393376003740485E-4</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="7"/>
-        <v>4.8987996960581093E-4</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="8"/>
-        <v>2.7996080365844112E-4</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="9"/>
-        <v>5.3550807639635156E-5</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>46.169070592970243</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="10"/>
-        <v>126815.02288979295</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="11"/>
-        <v>6.734E-4</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="11"/>
-        <v>5.1800000000000001E-4</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="11"/>
-        <v>9.0649999999999997E-4</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="12"/>
-        <v>6.7317331710559092E-4</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="13"/>
-        <v>9.0608925299839882E-4</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="14"/>
-        <v>5.1786586116231437E-4</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="15"/>
-        <v>9.9036579550021545E-5</v>
-      </c>
-      <c r="X5" s="1">
-        <f t="shared" si="2"/>
-        <v>46.170410455569339</v>
-      </c>
-      <c r="Y5" s="1">
-        <f t="shared" si="3"/>
-        <v>68540.045475352119</v>
+        <v>76870.074830534984</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>0.69</v>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0.57999999999999996</v>
+        <f t="shared" si="6"/>
+        <v>1.4</v>
       </c>
       <c r="D6">
-        <v>0.83</v>
+        <f t="shared" si="19"/>
+        <v>1.2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
-        <v>6.8999999999999997E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>5.8E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8.3000000000000001E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="8"/>
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="8"/>
+        <v>1.6799999999999999E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="9"/>
+        <v>1.9580804543080088E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="10"/>
+        <v>2.0977965426900447E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="11"/>
+        <v>1.6785895899401604E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="12"/>
+        <v>1.0694054917088885E-4</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>334.59734139478519</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="13"/>
+        <v>170545.68526325072</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="14"/>
+        <v>3.6259999999999999E-3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="14"/>
+        <v>3.1079999999999997E-3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="14"/>
+        <v>3.885E-3</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="15"/>
+        <v>3.6194340005021308E-3</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="16"/>
+        <v>3.8774631508786683E-3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="17"/>
+        <v>3.1031751678204378E-3</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="18"/>
+        <v>1.9752244465771188E-4</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="4"/>
+        <v>334.55611263842053</v>
+      </c>
+      <c r="Z6" s="1">
         <f t="shared" si="5"/>
-        <v>9.6599999999999984E-4</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="5"/>
-        <v>8.12E-4</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>1.1619999999999998E-3</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="6"/>
-        <v>9.6553357220185987E-4</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="7"/>
-        <v>1.1613251394213542E-3</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="8"/>
-        <v>8.1167041721308397E-4</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="9"/>
-        <v>8.9197633216395463E-5</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="1"/>
-        <v>117.05904743130023</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="10"/>
-        <v>121120.61802717509</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="11"/>
-        <v>1.7870999999999998E-3</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="11"/>
-        <v>1.5022E-3</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="11"/>
-        <v>2.1497E-3</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="12"/>
-        <v>1.78550408762157E-3</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="13"/>
-        <v>2.1473910497681326E-3</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="14"/>
-        <v>1.5010722623465256E-3</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="15"/>
-        <v>1.6487724168918544E-4</v>
-      </c>
-      <c r="X6" s="1">
-        <f t="shared" si="2"/>
-        <v>117.06242573558191</v>
-      </c>
-      <c r="Y6" s="1">
-        <f t="shared" si="3"/>
-        <v>65445.613429864468</v>
+        <v>92098.711793892537</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7">
-        <v>2.2999999999999998</v>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>3.9</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <f t="shared" si="19"/>
+        <v>3.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>2.3E-3</v>
+        <f t="shared" si="7"/>
+        <v>4.2</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H7">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="8"/>
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>5.0399999999999993E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>5.8800000000000007E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>5.4451212915659353E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="10"/>
+        <v>5.8627466331626632E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="11"/>
+        <v>5.0273205104860441E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="12"/>
+        <v>2.1311890884607629E-4</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>649.22652958854553</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="13"/>
+        <v>118581.63993322954</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="14"/>
+        <v>1.0100999999999999E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="14"/>
+        <v>9.323999999999999E-3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="14"/>
+        <v>1.0878000000000001E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="15"/>
+        <v>1.0050156234461483E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="16"/>
+        <v>1.0819048509734808E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="17"/>
+        <v>9.2806662977288346E-3</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="18"/>
+        <v>3.9244444183825846E-4</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="4"/>
+        <v>649.22573930071758</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="5"/>
-        <v>3.2199999999999998E-3</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="6"/>
-        <v>3.2148213598982567E-3</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="7"/>
-        <v>3.4938821395851249E-3</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="8"/>
-        <v>2.7960836561070623E-3</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="9"/>
-        <v>1.7800981721379148E-4</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="1"/>
-        <v>325.10455857022828</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="10"/>
-        <v>100801.6835813833</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="11"/>
-        <v>5.9569999999999996E-3</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="11"/>
-        <v>5.1799999999999997E-3</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="11"/>
-        <v>6.4749999999999999E-3</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="12"/>
-        <v>5.9392922546276372E-3</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="13"/>
-        <v>6.4540823590918395E-3</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="14"/>
-        <v>5.1666069353373256E-3</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="15"/>
-        <v>3.2843760810064129E-4</v>
-      </c>
-      <c r="X7" s="1">
-        <f t="shared" si="2"/>
-        <v>325.06379682992161</v>
-      </c>
-      <c r="Y7" s="1">
-        <f t="shared" si="3"/>
-        <v>54406.002278702239</v>
+        <v>63949.346079369629</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8">
-        <v>5.3</v>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>4.9000000000000004</v>
+        <f t="shared" si="6"/>
+        <v>7.5</v>
       </c>
       <c r="D8">
-        <v>5.7</v>
+        <f t="shared" si="19"/>
+        <v>7</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
-        <v>5.3E-3</v>
+        <f t="shared" si="7"/>
+        <v>7.9</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>4.9000000000000007E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>5.7000000000000002E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H8">
+        <f t="shared" si="2"/>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="8"/>
+        <v>1.0499999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="8"/>
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>1.106E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>1.0445067432100719E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="10"/>
+        <v>1.0999063061084891E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="11"/>
+        <v>9.7521364817653167E-3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="12"/>
+        <v>3.1809351513254435E-4</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>1066.9609425319572</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="13"/>
+        <v>101082.78097803019</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="14"/>
+        <v>1.9424999999999998E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="14"/>
+        <v>1.813E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="14"/>
+        <v>2.0461E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="15"/>
+        <v>1.9237550385938218E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="16"/>
+        <v>2.0253094141241546E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="17"/>
+        <v>1.7966640277004786E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="18"/>
+        <v>5.8327904699917335E-4</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="4"/>
+        <v>1066.8485907045758</v>
+      </c>
+      <c r="Z8" s="1">
         <f t="shared" si="5"/>
-        <v>7.4199999999999995E-3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
-        <v>6.8600000000000006E-3</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>7.9799999999999992E-3</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="6"/>
-        <v>7.3925397603015197E-3</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="7"/>
-        <v>7.9482443262349767E-3</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="8"/>
-        <v>6.8365239126605415E-3</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="9"/>
-        <v>2.8360214632000899E-4</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="1"/>
-        <v>674.43653132129975</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="10"/>
-        <v>90557.609989831457</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="11"/>
-        <v>1.3727E-2</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="11"/>
-        <v>1.2691000000000001E-2</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="11"/>
-        <v>1.4763E-2</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="12"/>
-        <v>1.3633214357778201E-2</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="13"/>
-        <v>1.4654561198689353E-2</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="14"/>
-        <v>1.2610808853246835E-2</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="15"/>
-        <v>5.2136539424554027E-4</v>
-      </c>
-      <c r="X8" s="1">
-        <f t="shared" si="2"/>
-        <v>674.4376159948032</v>
-      </c>
-      <c r="Y8" s="1">
-        <f t="shared" si="3"/>
-        <v>48795.745885522148</v>
+        <v>54389.723025835236</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9">
-        <v>9.9</v>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>9.3000000000000007</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
-        <v>9.9000000000000008E-3</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>9.300000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
       </c>
       <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>1.8199999999999997E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>1.8035380206259721E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="10"/>
+        <v>1.9409168797571597E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="11"/>
+        <v>1.6659666963978803E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="12"/>
+        <v>7.0140352897775349E-4</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>649.22986156543391</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="13"/>
+        <v>35348.340144754649</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="14"/>
+        <v>3.3669999999999999E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="14"/>
+        <v>3.108E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="14"/>
+        <v>3.6260000000000001E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="15"/>
+        <v>3.310947413035481E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="16"/>
+        <v>3.561048039116621E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="17"/>
+        <v>3.0601981867581007E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="18"/>
+        <v>1.2776781947921438E-3</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="4"/>
+        <v>649.25717536711227</v>
+      </c>
+      <c r="Z9" s="1">
         <f t="shared" si="5"/>
-        <v>1.3860000000000001E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
-        <v>1.302E-2</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
-        <v>1.5399999999999999E-2</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
-        <v>1.3764392416734328E-2</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="7"/>
-        <v>1.5282026374330182E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="8"/>
-        <v>1.2935606464997362E-2</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="9"/>
-        <v>5.9857650748286223E-4</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="1"/>
-        <v>521.48758189379032</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="10"/>
-        <v>37365.225184285533</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="11"/>
-        <v>2.5641000000000001E-2</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="11"/>
-        <v>2.4087000000000001E-2</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="11"/>
-        <v>2.8489999999999998E-2</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="12"/>
-        <v>2.5315061299926667E-2</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="13"/>
-        <v>2.8087986782326713E-2</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="14"/>
-        <v>2.3799223404193492E-2</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="15"/>
-        <v>1.0940722903401072E-3</v>
-      </c>
-      <c r="X9" s="1">
-        <f t="shared" si="2"/>
-        <v>521.80605630548155</v>
-      </c>
-      <c r="Y9" s="1">
-        <f t="shared" si="3"/>
-        <v>20090.668475091097</v>
+        <v>18960.15047668232</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10">
-        <v>15</v>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>19</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1.4E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9E-2</v>
       </c>
       <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>2.8972024416225373E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="10"/>
+        <v>3.1687099868377921E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="11"/>
+        <v>2.6249336099770648E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="12"/>
+        <v>1.3871846348487943E-3</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>423.53682926168477</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="13"/>
+        <v>14195.283836390141</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="14"/>
+        <v>5.4390000000000001E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="14"/>
+        <v>4.9209999999999997E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="14"/>
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="15"/>
+        <v>5.293731997689155E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="16"/>
+        <v>5.7830420587698161E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="17"/>
+        <v>4.8018807344607506E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="18"/>
+        <v>2.5029625620129224E-3</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="4"/>
+        <v>423.58409522309142</v>
+      </c>
+      <c r="Z10" s="1">
         <f t="shared" si="5"/>
-        <v>2.0999999999999998E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
-        <v>2.24E-2</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="6"/>
-        <v>2.078103543054044E-2</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="7"/>
-        <v>2.2150982794025165E-2</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="8"/>
-        <v>1.9409168797571597E-2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="9"/>
-        <v>6.9944234603407356E-4</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="1"/>
-        <v>864.37041992576223</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="10"/>
-        <v>40729.823614095149</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="11"/>
-        <v>3.8849999999999996E-2</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="11"/>
-        <v>3.6260000000000001E-2</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="11"/>
-        <v>4.1439999999999998E-2</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="12"/>
-        <v>3.8105017427024879E-2</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="13"/>
-        <v>4.0593101971543866E-2</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="14"/>
-        <v>3.561048039116621E-2</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="15"/>
-        <v>1.2710769337698101E-3</v>
-      </c>
-      <c r="X10" s="1">
-        <f t="shared" si="2"/>
-        <v>864.42868397370967</v>
-      </c>
-      <c r="Y10" s="1">
-        <f t="shared" si="3"/>
-        <v>21821.000751380354</v>
+        <v>7578.0316912956896</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11">
-        <v>13</v>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>19</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
-        <v>1.2999999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>38</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9E-2</v>
       </c>
       <c r="H11">
+        <f t="shared" si="2"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>3.78E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>3.709449726507974E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="10"/>
+        <v>5.1809644553862499E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="11"/>
+        <v>2.6249336099770648E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="12"/>
+        <v>6.5204868505336355E-3</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>31.126145247795073</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="13"/>
+        <v>807.97796837222711</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="14"/>
+        <v>6.9929999999999992E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="14"/>
+        <v>4.9209999999999997E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="14"/>
+        <v>9.8419999999999994E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="15"/>
+        <v>6.7540910242240182E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="16"/>
+        <v>9.3731808830416541E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="17"/>
+        <v>4.8018807344607506E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="18"/>
+        <v>1.1661479970869653E-2</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="4"/>
+        <v>31.211704254178279</v>
+      </c>
+      <c r="Z11" s="1">
         <f t="shared" si="5"/>
-        <v>1.8199999999999997E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="5"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="6"/>
-        <v>1.8035380206259721E-2</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="7"/>
-        <v>2.3519013573123138E-2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="8"/>
-        <v>1.3902455737138109E-2</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="9"/>
-        <v>2.4532035295880177E-3</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="1"/>
-        <v>53.055654572896763</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="10"/>
-        <v>2888.6984956657657</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="11"/>
-        <v>3.3669999999999999E-2</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="11"/>
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="11"/>
-        <v>4.403E-2</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="12"/>
-        <v>3.310947413035481E-2</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="13"/>
-        <v>4.3074750715052512E-2</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="14"/>
-        <v>2.5567472010451953E-2</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="15"/>
-        <v>4.4661425266838166E-3</v>
-      </c>
-      <c r="X11" s="1">
-        <f t="shared" si="2"/>
-        <v>53.106298776369492</v>
-      </c>
-      <c r="Y11" s="1">
-        <f t="shared" si="3"/>
-        <v>1550.8545061366137</v>
+        <v>430.90383641939758</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>100</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C12">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D12">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -2109,93 +2219,99 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="R12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>110</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D13">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -2203,93 +2319,99 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="R13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>120</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C14">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D14">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -2297,80 +2419,85 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="R14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2378,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2471,21 +2598,24 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f>VALUE(LEFT(B2, FIND("(", B2) - 1))</f>
+        <v>0.02</v>
       </c>
       <c r="D2">
+        <f>VALUE(SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("(", B2)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("-", B2)), ")", ""), ")"), ""))</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>VALUE(SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("-", B2)), ")", ""))</f>
+        <v>0.15</v>
       </c>
       <c r="F2">
         <f>C2/1000</f>
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:H14" si="0">D2/1000</f>
@@ -2493,11 +2623,11 @@
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="I2">
         <f>F2*1.4</f>
-        <v>0</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J2">
         <f>G2*1.4</f>
@@ -2505,15 +2635,15 @@
       </c>
       <c r="K2">
         <f>H2*1.4</f>
-        <v>0</v>
+        <v>2.0999999999999998E-4</v>
       </c>
       <c r="L2">
         <f>1-EXP(-I2)</f>
-        <v>0</v>
+        <v>2.7999608003703713E-5</v>
       </c>
       <c r="M2">
         <f>1-EXP(-K2)</f>
-        <v>0</v>
+        <v>2.0997795154342747E-4</v>
       </c>
       <c r="N2">
         <f>1-EXP(-J2)</f>
@@ -2521,7 +2651,7 @@
       </c>
       <c r="O2">
         <f>(M2-N2)/(2*1.96)</f>
-        <v>0</v>
+        <v>5.356580396516007E-5</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -2531,7 +2661,7 @@
       </c>
       <c r="R2">
         <f>F2*2.59</f>
-        <v>0</v>
+        <v>5.1799999999999999E-5</v>
       </c>
       <c r="S2">
         <f>G2*2.59</f>
@@ -2539,15 +2669,15 @@
       </c>
       <c r="T2">
         <f>H2*2.59</f>
-        <v>0</v>
+        <v>3.8849999999999996E-4</v>
       </c>
       <c r="U2">
         <f>1-EXP(-R2)</f>
-        <v>0</v>
+        <v>5.1798658403212627E-5</v>
       </c>
       <c r="V2">
         <f>1-EXP(-T2)</f>
-        <v>0</v>
+        <v>3.8842454364695911E-4</v>
       </c>
       <c r="W2">
         <f>1-EXP(-S2)</f>
@@ -2555,7 +2685,7 @@
       </c>
       <c r="X2">
         <f>(V2-W2)/(2*1.96)</f>
-        <v>0</v>
+        <v>9.9087893787489572E-5</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
@@ -2568,909 +2698,936 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C14" si="1">VALUE(LEFT(B3, FIND("(", B3) - 1))</f>
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <f>VALUE(SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("(", B3)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("-", B3)), ")", ""), ")"), ""))</f>
         <v>0.01</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <v>0.1</v>
+        <f t="shared" ref="E3:E14" si="2">VALUE(SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("-", B3)), ")", ""))</f>
+        <v>0.15</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="1">C3/1000</f>
-        <v>1.0000000000000001E-5</v>
+        <f t="shared" ref="F3:F14" si="3">C3/1000</f>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:K14" si="2">F3*1.4</f>
+        <f t="shared" ref="I3:K14" si="4">F3*1.4</f>
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="4"/>
         <v>1.4E-5</v>
       </c>
-      <c r="J3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K3">
-        <f t="shared" si="2"/>
-        <v>1.3999999999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.0999999999999998E-4</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L14" si="3">1-EXP(-I3)</f>
+        <f t="shared" ref="L3:L14" si="5">1-EXP(-I3)</f>
+        <v>5.5998432029302769E-5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M14" si="6">1-EXP(-K3)</f>
+        <v>2.0997795154342747E-4</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N14" si="7">1-EXP(-J3)</f>
         <v>1.3999902000461084E-5</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M14" si="4">1-EXP(-K3)</f>
-        <v>1.3999020045729615E-4</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N14" si="5">1-EXP(-J3)</f>
-        <v>0</v>
-      </c>
       <c r="O3">
-        <f t="shared" ref="O3:O14" si="6">(M3-N3)/(2*1.96)</f>
-        <v>3.5711785830942897E-5</v>
+        <f t="shared" ref="O3:O14" si="8">(M3-N3)/(2*1.96)</f>
+        <v>4.9994400393613876E-5</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P11" si="7">(((1-L3)/(O3*O3))-(1/L3))*L3*L3</f>
-        <v>0.1536672111814425</v>
+        <f t="shared" ref="P3:P11" si="9">(((1-L3)/(O3*O3))-(1/L3))*L3*L3</f>
+        <v>1.2544844985489676</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q11" si="8">P3*((1/L3)-1)</f>
-        <v>10976.152536673782</v>
+        <f t="shared" ref="Q3:Q11" si="10">P3*((1/L3)-1)</f>
+        <v>22400.881666251582</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:T14" si="9">F3*2.59</f>
+        <f t="shared" ref="R3:T14" si="11">F3*2.59</f>
+        <v>1.036E-4</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="11"/>
         <v>2.5899999999999999E-5</v>
       </c>
-      <c r="S3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="T3">
-        <f t="shared" si="9"/>
-        <v>2.5900000000000001E-4</v>
+        <f t="shared" si="11"/>
+        <v>3.8849999999999996E-4</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U14" si="10">1-EXP(-R3)</f>
+        <f t="shared" ref="U3:U14" si="12">1-EXP(-R3)</f>
+        <v>1.035946337053506E-4</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V14" si="13">1-EXP(-T3)</f>
+        <v>3.8842454364695911E-4</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W14" si="14">1-EXP(-S3)</f>
         <v>2.5899664597872629E-5</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V14" si="11">1-EXP(-T3)</f>
-        <v>2.5896646239542687E-4</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W14" si="12">1-EXP(-S3)</f>
-        <v>0</v>
-      </c>
       <c r="X3">
-        <f t="shared" ref="X3:X14" si="13">(V3-W3)/(2*1.96)</f>
-        <v>6.6062873060057875E-5</v>
+        <f t="shared" ref="X3:X14" si="15">(V3-W3)/(2*1.96)</f>
+        <v>9.2480836492113893E-5</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y2:Y11" si="14">(((1-U3)/(X3*X3))-(1/U3))*U3*U3</f>
-        <v>0.15366994196417302</v>
+        <f t="shared" ref="Y3:Y11" si="16">(((1-U3)/(X3*X3))-(1/U3))*U3*U3</f>
+        <v>1.2545563313507557</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" ref="Z2:Z11" si="15">Y3*((1/U3)-1)</f>
-        <v>5933.1255578050741</v>
+        <f t="shared" ref="Z3:Z11" si="17">Y3*((1/U3)-1)</f>
+        <v>12108.989830641742</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D14" si="18">VALUE(SUBSTITUTE(RIGHT(B4, LEN(B4) - FIND("(", B4)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B4, LEN(B4) - FIND("-", B4)), ")", ""), ")"), ""))</f>
         <v>0.05</v>
       </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
       <c r="E4">
-        <v>0.13</v>
+        <f t="shared" si="2"/>
+        <v>0.21</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000002E-5</v>
+        <f t="shared" si="3"/>
+        <v>1E-4</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.3000000000000002E-4</v>
+        <v>2.0999999999999998E-4</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>2.7999999999999998E-4</v>
-      </c>
       <c r="K4">
-        <f t="shared" si="2"/>
-        <v>1.8200000000000001E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.9399999999999994E-4</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>1.3999020045729615E-4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>2.9395678623500565E-4</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
         <v>6.9997550057210312E-5</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="4"/>
-        <v>1.8198343900466263E-4</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="5"/>
-        <v>2.7996080365844112E-4</v>
-      </c>
       <c r="O4">
-        <f t="shared" si="6"/>
-        <v>-2.4994225676984307E-5</v>
+        <f t="shared" si="8"/>
+        <v>5.7132458208621261E-5</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="7"/>
-        <v>7.8424548858572125</v>
+        <f t="shared" si="9"/>
+        <v>6.0028642256844016</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="8"/>
-        <v>112031.14861619344</v>
+        <f t="shared" si="10"/>
+        <v>42874.600249958501</v>
       </c>
       <c r="R4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>2.5900000000000001E-4</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="11"/>
         <v>1.295E-4</v>
       </c>
-      <c r="S4">
-        <f t="shared" si="9"/>
-        <v>5.1800000000000001E-4</v>
-      </c>
       <c r="T4">
-        <f t="shared" si="9"/>
-        <v>3.367E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.4389999999999994E-4</v>
       </c>
       <c r="U4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>2.5896646239542687E-4</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="13"/>
+        <v>5.43752113208118E-4</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="14"/>
         <v>1.2949161523689856E-4</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="11"/>
-        <v>3.3664332291627463E-4</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="12"/>
-        <v>5.1786586116231437E-4</v>
-      </c>
       <c r="X4">
-        <f t="shared" si="13"/>
-        <v>-4.6230239348479522E-5</v>
+        <f t="shared" si="15"/>
+        <v>1.0567869846204578E-4</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" si="14"/>
-        <v>7.8445421771785169</v>
+        <f t="shared" si="16"/>
+        <v>6.0031738421614715</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" si="15"/>
-        <v>60571.693081377147</v>
+        <f t="shared" si="17"/>
+        <v>23175.275925514616</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>0.11</v>
+        <f t="shared" si="1"/>
+        <v>0.17</v>
       </c>
       <c r="D5">
-        <v>0.06</v>
+        <f t="shared" si="18"/>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.27</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1.1E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>5.9999999999999995E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>1.54E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.3800000000000001E-4</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>8.3999999999999982E-5</v>
+        <f t="shared" si="4"/>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>2.7999999999999998E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.7799999999999997E-4</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
-        <v>1.5398814260869642E-4</v>
+        <f t="shared" si="5"/>
+        <v>2.379716802467513E-4</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
-        <v>2.7996080365844112E-4</v>
+        <f t="shared" si="6"/>
+        <v>3.7792856700080701E-4</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
-        <v>8.3996472098779584E-5</v>
+        <f t="shared" si="7"/>
+        <v>1.3999020045729615E-4</v>
       </c>
       <c r="O5">
-        <f t="shared" si="6"/>
-        <v>4.999090090807692E-5</v>
+        <f t="shared" si="8"/>
+        <v>6.0698562893752769E-5</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="7"/>
-        <v>9.4867772535088015</v>
+        <f t="shared" si="9"/>
+        <v>15.366807430675635</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="8"/>
-        <v>61597.706431225648</v>
+        <f t="shared" si="10"/>
+        <v>64558.734677006003</v>
       </c>
       <c r="R5">
-        <f t="shared" si="9"/>
-        <v>2.8489999999999999E-4</v>
+        <f t="shared" si="11"/>
+        <v>4.4030000000000002E-4</v>
       </c>
       <c r="S5">
-        <f t="shared" si="9"/>
-        <v>1.5539999999999998E-4</v>
+        <f t="shared" si="11"/>
+        <v>2.5900000000000001E-4</v>
       </c>
       <c r="T5">
-        <f t="shared" si="9"/>
-        <v>5.1800000000000001E-4</v>
+        <f t="shared" si="11"/>
+        <v>6.9929999999999992E-4</v>
       </c>
       <c r="U5">
-        <f t="shared" si="10"/>
-        <v>2.8485941984890406E-4</v>
+        <f t="shared" si="12"/>
+        <v>4.4020308217984638E-4</v>
       </c>
       <c r="V5">
-        <f t="shared" si="11"/>
-        <v>5.1786586116231437E-4</v>
+        <f t="shared" si="13"/>
+        <v>6.9905554674032366E-4</v>
       </c>
       <c r="W5">
-        <f t="shared" si="12"/>
-        <v>1.5538792604541385E-4</v>
+        <f t="shared" si="14"/>
+        <v>2.5896646239542687E-4</v>
       </c>
       <c r="X5">
-        <f t="shared" si="13"/>
-        <v>9.2468860999209317E-5</v>
+        <f t="shared" si="15"/>
+        <v>1.1226762355737163E-4</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="14"/>
-        <v>9.4870979427556641</v>
+        <f t="shared" si="16"/>
+        <v>15.367153812586258</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="15"/>
-        <v>33295.003755081649</v>
+        <f t="shared" si="17"/>
+        <v>34893.870047547942</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>0.35</v>
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <f t="shared" si="18"/>
+        <v>0.43</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.7</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>3.5E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>4.8999999999999998E-4</v>
+        <f t="shared" si="4"/>
+        <v>7.6999999999999996E-4</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>3.5E-4</v>
+        <f t="shared" si="4"/>
+        <v>6.02E-4</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>6.9999999999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
-        <v>4.8987996960581093E-4</v>
+        <f t="shared" si="5"/>
+        <v>7.6970362607420295E-4</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
-        <v>6.9975505715669239E-4</v>
+        <f t="shared" si="6"/>
+        <v>9.7951995682687976E-4</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
-        <v>3.4993875714517397E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.0181883435572736E-4</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
-        <v>8.9238852043754699E-5</v>
+        <f t="shared" si="8"/>
+        <v>9.6352327161008261E-5</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="7"/>
-        <v>30.119762759074913</v>
+        <f t="shared" si="9"/>
+        <v>63.765093239293627</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="8"/>
-        <v>61453.844938453796</v>
+        <f t="shared" si="10"/>
+        <v>82779.930946652283</v>
       </c>
       <c r="R6">
-        <f t="shared" si="9"/>
-        <v>9.0649999999999997E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.4245E-3</v>
       </c>
       <c r="S6">
-        <f t="shared" si="9"/>
-        <v>6.4749999999999996E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.1137E-3</v>
       </c>
       <c r="T6">
-        <f t="shared" si="9"/>
-        <v>1.2949999999999999E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.8129999999999999E-3</v>
       </c>
       <c r="U6">
-        <f t="shared" si="10"/>
-        <v>9.0608925299839882E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.4234858814694551E-3</v>
       </c>
       <c r="V6">
-        <f t="shared" si="11"/>
-        <v>1.2941618493407248E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.8113575082624456E-3</v>
       </c>
       <c r="W6">
-        <f t="shared" si="12"/>
-        <v>6.4729041711242274E-4</v>
+        <f t="shared" si="14"/>
+        <v>1.1130800663163853E-3</v>
       </c>
       <c r="X6">
-        <f t="shared" si="13"/>
-        <v>1.6501822250721991E-4</v>
+        <f t="shared" si="15"/>
+        <v>1.7813200049644393E-4</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="14"/>
-        <v>30.121139473259287</v>
+        <f t="shared" si="16"/>
+        <v>63.766721732111456</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="15"/>
-        <v>33212.894792548301</v>
+        <f t="shared" si="17"/>
+        <v>44732.40762900011</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>1.1000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.2</v>
       </c>
       <c r="D7">
-        <v>0.89</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1.4</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>8.9000000000000006E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1.6799999999999999E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
         <v>1.4E-3</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>1.5399999999999999E-3</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>1.2459999999999999E-3</v>
-      </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>1.9599999999999999E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
-        <v>1.5388148084763964E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.6785895899401604E-3</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>1.9580804543080088E-3</v>
+        <f t="shared" si="6"/>
+        <v>2.0977965426900447E-3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
-        <v>1.2452240643053836E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.3990204571733278E-3</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
-        <v>1.8185111989862888E-4</v>
+        <f t="shared" si="8"/>
+        <v>1.782592054889584E-4</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="7"/>
-        <v>71.492847167771714</v>
+        <f t="shared" si="9"/>
+        <v>88.52119494869639</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="8"/>
-        <v>46388.189483650094</v>
+        <f t="shared" si="10"/>
+        <v>52646.939264955661</v>
       </c>
       <c r="R7">
-        <f t="shared" si="9"/>
-        <v>2.849E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.1079999999999997E-3</v>
       </c>
       <c r="S7">
-        <f t="shared" si="9"/>
-        <v>2.3051E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.5899999999999999E-3</v>
       </c>
       <c r="T7">
-        <f t="shared" si="9"/>
-        <v>3.6259999999999999E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.885E-3</v>
       </c>
       <c r="U7">
-        <f t="shared" si="10"/>
-        <v>2.8449454508840955E-3</v>
+        <f t="shared" si="12"/>
+        <v>3.1031751678204378E-3</v>
       </c>
       <c r="V7">
-        <f t="shared" si="11"/>
-        <v>3.6194340005021308E-3</v>
+        <f t="shared" si="13"/>
+        <v>3.8774631508786683E-3</v>
       </c>
       <c r="W7">
-        <f t="shared" si="12"/>
-        <v>2.30244529717194E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.5866488437892299E-3</v>
       </c>
       <c r="X7">
-        <f t="shared" si="13"/>
-        <v>3.3596650595157929E-4</v>
+        <f t="shared" si="15"/>
+        <v>3.2928936405342816E-4</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="14"/>
-        <v>71.499225370095544</v>
+        <f t="shared" si="16"/>
+        <v>88.530346898140166</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="15"/>
-        <v>25060.520563577506</v>
+        <f t="shared" si="17"/>
+        <v>28440.425355051746</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="1"/>
+        <v>2.7</v>
       </c>
       <c r="D8">
-        <v>1.8</v>
+        <f t="shared" si="18"/>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E8">
-        <v>2.6</v>
+        <f t="shared" si="2"/>
+        <v>3.1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.8E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.5999999999999999E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>3.0799999999999998E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>2.5199999999999997E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.2199999999999998E-3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>3.6399999999999996E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.3399999999999992E-3</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
-        <v>3.0752616659379672E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.7728647931918324E-3</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
-        <v>3.6333832307813285E-3</v>
+        <f t="shared" si="6"/>
+        <v>4.3305958096476749E-3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
-        <v>2.5168274654885359E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.2148213598982567E-3</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
-        <v>2.8483565441142668E-4</v>
+        <f t="shared" si="8"/>
+        <v>2.8463633922179036E-4</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="7"/>
-        <v>116.20540445731595</v>
+        <f t="shared" si="9"/>
+        <v>175.02931725019243</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="8"/>
-        <v>37670.954545027125</v>
+        <f t="shared" si="10"/>
+        <v>46216.592658187248</v>
       </c>
       <c r="R8">
-        <f t="shared" si="9"/>
-        <v>5.6979999999999999E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.9930000000000001E-3</v>
       </c>
       <c r="S8">
-        <f t="shared" si="9"/>
-        <v>4.6619999999999995E-3</v>
+        <f t="shared" si="11"/>
+        <v>5.9569999999999996E-3</v>
       </c>
       <c r="T8">
-        <f t="shared" si="9"/>
-        <v>6.7339999999999995E-3</v>
+        <f t="shared" si="11"/>
+        <v>8.0289999999999997E-3</v>
       </c>
       <c r="U8">
-        <f t="shared" si="10"/>
-        <v>5.6817971871497841E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.9686058713351873E-3</v>
       </c>
       <c r="V8">
-        <f t="shared" si="11"/>
-        <v>6.7113774306107876E-3</v>
+        <f t="shared" si="13"/>
+        <v>7.9968536713242999E-3</v>
       </c>
       <c r="W8">
-        <f t="shared" si="12"/>
-        <v>4.6511497458435747E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.9392922546276372E-3</v>
       </c>
       <c r="X8">
-        <f t="shared" si="13"/>
-        <v>5.2556828693041153E-4</v>
+        <f t="shared" si="15"/>
+        <v>5.2488811650425074E-4</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="14"/>
-        <v>116.20299104119786</v>
+        <f t="shared" si="16"/>
+        <v>175.02658206329198</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="15"/>
-        <v>20335.599002878604</v>
+        <f t="shared" si="17"/>
+        <v>24941.41496950301</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>4.8</v>
       </c>
       <c r="D9">
-        <v>3.4</v>
+        <f t="shared" si="18"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E9">
-        <v>4.8</v>
+        <f t="shared" si="2"/>
+        <v>5.6</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>3.3999999999999998E-3</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>4.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>5.5999999999999999E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.7199999999999994E-3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>4.7599999999999995E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.7399999999999986E-3</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>6.7199999999999994E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
-        <v>5.584349228402119E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6974712925520485E-3</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
-        <v>6.6974712925520485E-3</v>
+        <f t="shared" si="6"/>
+        <v>7.8093473578796369E-3</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
-        <v>4.7486891536594467E-3</v>
+        <f t="shared" si="7"/>
+        <v>5.7235576746915706E-3</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
-        <v>4.9713830073790869E-4</v>
+        <f t="shared" si="8"/>
+        <v>5.3208920489491486E-4</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="7"/>
-        <v>125.46983150829159</v>
+        <f t="shared" si="9"/>
+        <v>157.36780373734743</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="8"/>
-        <v>22342.650691855353</v>
+        <f t="shared" si="10"/>
+        <v>23339.232161140288</v>
       </c>
       <c r="R9">
-        <f t="shared" si="9"/>
-        <v>1.0359999999999999E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.2431999999999999E-2</v>
       </c>
       <c r="S9">
-        <f t="shared" si="9"/>
-        <v>8.8059999999999996E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0618999999999998E-2</v>
       </c>
       <c r="T9">
-        <f t="shared" si="9"/>
-        <v>1.2431999999999999E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.4504E-2</v>
       </c>
       <c r="U9">
-        <f t="shared" si="10"/>
-        <v>1.030652004345034E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.2355041932353372E-2</v>
       </c>
       <c r="V9">
-        <f t="shared" si="11"/>
-        <v>1.2355041932353372E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.4399323678207732E-2</v>
       </c>
       <c r="W9">
-        <f t="shared" si="12"/>
-        <v>8.7673407430305383E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.0562817462810514E-2</v>
       </c>
       <c r="X9">
-        <f t="shared" si="13"/>
-        <v>9.1522989523541687E-4</v>
+        <f t="shared" si="15"/>
+        <v>9.7870056515235145E-4</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="14"/>
-        <v>125.49567325808677</v>
+        <f t="shared" si="16"/>
+        <v>157.38216957944013</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="15"/>
-        <v>12050.842482493877</v>
+        <f t="shared" si="17"/>
+        <v>12580.912887705093</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>9.6</v>
       </c>
       <c r="D10">
-        <v>4.7</v>
+        <f t="shared" si="18"/>
+        <v>7.5</v>
       </c>
       <c r="E10">
-        <v>7.6</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>4.7000000000000002E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>7.6E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>8.3999999999999995E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.3439999999999999E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>6.5799999999999999E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.0499999999999999E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>1.064E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
-        <v>8.3648185769016337E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.3350086463389532E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
-        <v>1.058359542547449E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.6659666963978803E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
-        <v>6.5583992037139272E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.0445067432100719E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
-        <v>1.0268357708572865E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.5853570234382868E-3</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="7"/>
-        <v>65.797257380714953</v>
+        <f t="shared" si="9"/>
+        <v>69.951043968221867</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="8"/>
-        <v>7800.1542603731295</v>
+        <f t="shared" si="10"/>
+        <v>5169.7935943943357</v>
       </c>
       <c r="R10">
-        <f t="shared" si="9"/>
-        <v>1.554E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.4863999999999997E-2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="9"/>
-        <v>1.2173E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.9424999999999998E-2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="9"/>
-        <v>1.9684E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.108E-2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="10"/>
-        <v>1.5419877240852031E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.4557436803556487E-2</v>
       </c>
       <c r="V10">
-        <f t="shared" si="11"/>
-        <v>1.9491534967965074E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.0601981867581007E-2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="12"/>
-        <v>1.2099208759248081E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9237550385938218E-2</v>
       </c>
       <c r="X10">
-        <f t="shared" si="13"/>
-        <v>1.8857975022237227E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.8990896636843849E-3</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="14"/>
-        <v>65.814417759705577</v>
+        <f t="shared" si="16"/>
+        <v>69.966809784656277</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="15"/>
-        <v>4202.3400384471697</v>
+        <f t="shared" si="17"/>
+        <v>2779.1420098509279</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>4.9000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>5.9</v>
       </c>
       <c r="D11">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="18"/>
+        <v>1.5</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>4.9000000000000007E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.9000000000000007E-3</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>2.2000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>6.8600000000000006E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.26E-3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>3.0799999999999998E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>1.5399999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
-        <v>6.8365239126605415E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.2259799330240968E-3</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
-        <v>1.5282026374330182E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.3041789424606893E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
-        <v>3.0752616659379672E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.0977965426900447E-3</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
-        <v>3.1139705888755653E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.8938757351828693E-3</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="7"/>
-        <v>4.7801521671658644</v>
+        <f t="shared" si="9"/>
+        <v>1.0687535482652595</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="8"/>
-        <v>694.42784128598555</v>
+        <f t="shared" si="10"/>
+        <v>128.85540831050994</v>
       </c>
       <c r="R11">
-        <f t="shared" si="9"/>
-        <v>1.2691000000000001E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.5281000000000001E-2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="9"/>
-        <v>5.6979999999999999E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.885E-3</v>
       </c>
       <c r="T11">
-        <f t="shared" si="9"/>
-        <v>2.8489999999999998E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.216E-2</v>
       </c>
       <c r="U11">
-        <f t="shared" si="10"/>
-        <v>1.2610808853246835E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.5164837962896582E-2</v>
       </c>
       <c r="V11">
-        <f t="shared" si="11"/>
-        <v>2.8087986782326713E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.0267482440938269E-2</v>
       </c>
       <c r="W11">
-        <f t="shared" si="12"/>
-        <v>5.6817971871497841E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.8774631508786683E-3</v>
       </c>
       <c r="X11">
-        <f t="shared" si="13"/>
-        <v>5.7158646926471759E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.4385209002566225E-2</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="14"/>
-        <v>4.7936836633525468</v>
+        <f t="shared" si="16"/>
+        <v>1.0793124208709886</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="15"/>
-        <v>375.3313122141596</v>
+        <f t="shared" si="17"/>
+        <v>70.092725388679909</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -3481,16 +3638,19 @@
         <v>26</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
@@ -3502,31 +3662,31 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
@@ -3536,31 +3696,31 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
@@ -3578,16 +3738,19 @@
         <v>26</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -3599,31 +3762,31 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P13" s="1">
@@ -3633,31 +3796,31 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y13" s="1">
@@ -3675,16 +3838,19 @@
         <v>26</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14">
@@ -3696,31 +3862,31 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P14" s="1">
@@ -3730,31 +3896,31 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y14" s="1">
@@ -3773,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12:Z14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3868,1063 +4034,1099 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>0.03</v>
+        <f>VALUE(LEFT(B2, FIND("(", B2) - 1))</f>
+        <v>0.02</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <f>VALUE(SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("(", B2)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("-", B2)), ")", ""), ")"), ""))</f>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.13</v>
+        <f>VALUE(SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND("-", B2)), ")", ""))</f>
+        <v>0.17</v>
       </c>
       <c r="F2">
         <f>C2/1000</f>
-        <v>2.9999999999999997E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:H2" si="0">D2/1000</f>
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>1.3000000000000002E-4</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I2">
         <f>F2*1.4</f>
-        <v>4.1999999999999991E-5</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J2">
         <f>G2*1.4</f>
-        <v>1.4E-5</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>H2*1.4</f>
-        <v>1.8200000000000001E-4</v>
+        <v>2.3800000000000001E-4</v>
       </c>
       <c r="L2">
         <f>1-EXP(-I2)</f>
-        <v>4.1999118012392422E-5</v>
+        <v>2.7999608003703713E-5</v>
       </c>
       <c r="M2">
         <f>1-EXP(-K2)</f>
-        <v>1.8198343900466263E-4</v>
+        <v>2.379716802467513E-4</v>
       </c>
       <c r="N2">
         <f>1-EXP(-J2)</f>
-        <v>1.3999902000461084E-5</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <f>(M2-N2)/(2*1.96)</f>
-        <v>4.285294311331672E-5</v>
+        <v>6.0707061287436558E-5</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2" si="1">(((1-L2)/(O2*O2))-(1/L2))*L2*L2</f>
-        <v>0.9604655695906088</v>
+        <v>0.21269444838948848</v>
       </c>
       <c r="Q2" s="1">
         <f>P2*((1/L2)-1)</f>
-        <v>22867.747617948022</v>
+        <v>7596.1239528844526</v>
       </c>
       <c r="R2">
         <f>F2*2.59</f>
-        <v>7.7699999999999991E-5</v>
+        <v>5.1799999999999999E-5</v>
       </c>
       <c r="S2">
         <f>G2*2.59</f>
-        <v>2.5899999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f>H2*2.59</f>
-        <v>3.367E-4</v>
+        <v>4.4030000000000002E-4</v>
       </c>
       <c r="U2">
         <f>1-EXP(-R2)</f>
-        <v>7.7696981433228451E-5</v>
+        <v>5.1798658403212627E-5</v>
       </c>
       <c r="V2">
         <f>1-EXP(-T2)</f>
-        <v>3.3664332291627463E-4</v>
+        <v>4.4020308217984638E-4</v>
       </c>
       <c r="W2">
         <f>1-EXP(-S2)</f>
-        <v>2.5899664597872629E-5</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f>(V2-W2)/(2*1.96)</f>
-        <v>7.9271341407755616E-5</v>
+        <v>1.1229670463771592E-4</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2" si="2">(((1-U2)/(X2*X2))-(1/U2))*U2*U2</f>
-        <v>0.9605213112673775</v>
+        <v>0.21270355764788459</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2" si="3">Y2*((1/U2)-1)</f>
-        <v>12361.44138348904</v>
+        <v>4106.1399357742703</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <f t="shared" ref="C3:C14" si="4">VALUE(LEFT(B3, FIND("(", B3) - 1))</f>
+        <v>0.03</v>
       </c>
       <c r="D3">
-        <v>0.02</v>
+        <f>VALUE(SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("(", B3)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("-", B3)), ")", ""), ")"), ""))</f>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <f t="shared" ref="E3:E14" si="5">VALUE(SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND("-", B3)), ")", ""))</f>
+        <v>0.18</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="4">C3/1000</f>
-        <v>5.0000000000000002E-5</v>
+        <f t="shared" ref="F3:F14" si="6">C3/1000</f>
+        <v>2.9999999999999997E-5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G14" si="5">D3/1000</f>
-        <v>2.0000000000000002E-5</v>
+        <f t="shared" ref="G3:G14" si="7">D3/1000</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="6">E3/1000</f>
-        <v>1.4999999999999999E-4</v>
+        <f t="shared" ref="H3:H14" si="8">E3/1000</f>
+        <v>1.7999999999999998E-4</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I14" si="7">F3*1.4</f>
-        <v>6.9999999999999994E-5</v>
+        <f t="shared" ref="I3:I14" si="9">F3*1.4</f>
+        <v>4.1999999999999991E-5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J14" si="8">G3*1.4</f>
-        <v>2.8E-5</v>
+        <f t="shared" ref="J3:J14" si="10">G3*1.4</f>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K14" si="9">H3*1.4</f>
-        <v>2.0999999999999998E-4</v>
+        <f t="shared" ref="K3:K14" si="11">H3*1.4</f>
+        <v>2.5199999999999995E-4</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L14" si="10">1-EXP(-I3)</f>
-        <v>6.9997550057210312E-5</v>
+        <f t="shared" ref="L3:L14" si="12">1-EXP(-I3)</f>
+        <v>4.1999118012392422E-5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M14" si="11">1-EXP(-K3)</f>
-        <v>2.0997795154342747E-4</v>
+        <f t="shared" ref="M3:M14" si="13">1-EXP(-K3)</f>
+        <v>2.5196825066697848E-4</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N14" si="12">1-EXP(-J3)</f>
-        <v>2.7999608003703713E-5</v>
+        <f t="shared" ref="N3:N14" si="14">1-EXP(-J3)</f>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O14" si="13">(M3-N3)/(2*1.96)</f>
-        <v>4.6423046821358103E-5</v>
+        <f t="shared" ref="O3:O14" si="15">(M3-N3)/(2*1.96)</f>
+        <v>6.4277614966065939E-5</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P11" si="14">(((1-L3)/(O3*O3))-(1/L3))*L3*L3</f>
-        <v>2.2732888700346066</v>
+        <f t="shared" ref="P3:P11" si="16">(((1-L3)/(O3*O3))-(1/L3))*L3*L3</f>
+        <v>0.42687415902155978</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q11" si="15">P3*((1/L3)-1)</f>
-        <v>32474.418655013786</v>
+        <f t="shared" ref="Q3:Q11" si="17">P3*((1/L3)-1)</f>
+        <v>10163.457017298048</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R14" si="16">F3*2.59</f>
-        <v>1.295E-4</v>
+        <f t="shared" ref="R3:R14" si="18">F3*2.59</f>
+        <v>7.7699999999999991E-5</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S14" si="17">G3*2.59</f>
-        <v>5.1799999999999999E-5</v>
+        <f t="shared" ref="S3:S14" si="19">G3*2.59</f>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T14" si="18">H3*2.59</f>
-        <v>3.8849999999999996E-4</v>
+        <f t="shared" ref="T3:T14" si="20">H3*2.59</f>
+        <v>4.6619999999999995E-4</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U14" si="19">1-EXP(-R3)</f>
-        <v>1.2949161523689856E-4</v>
+        <f t="shared" ref="U3:U14" si="21">1-EXP(-R3)</f>
+        <v>7.7696981433228451E-5</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V14" si="20">1-EXP(-T3)</f>
-        <v>3.8842454364695911E-4</v>
+        <f t="shared" ref="V3:V14" si="22">1-EXP(-T3)</f>
+        <v>4.6609134566555355E-4</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W14" si="21">1-EXP(-S3)</f>
-        <v>5.1798658403212627E-5</v>
+        <f t="shared" ref="W3:W14" si="23">1-EXP(-S3)</f>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X14" si="22">(V3-W3)/(2*1.96)</f>
-        <v>8.5873950317282274E-5</v>
+        <f t="shared" ref="X3:X14" si="24">(V3-W3)/(2*1.96)</f>
+        <v>1.1890085348611061E-4</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y11" si="23">(((1-U3)/(X3*X3))-(1/U3))*U3*U3</f>
-        <v>2.2734187416911169</v>
+        <f t="shared" ref="Y3:Y11" si="25">(((1-U3)/(X3*X3))-(1/U3))*U3*U3</f>
+        <v>0.42689942381630286</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" ref="Z3:Z11" si="24">Y3*((1/U3)-1)</f>
-        <v>17554.220393865471</v>
+        <f t="shared" ref="Z3:Z11" si="26">Y3*((1/U3)-1)</f>
+        <v>5493.9876317658336</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.13</v>
+        <f t="shared" si="4"/>
+        <v>0.24</v>
       </c>
       <c r="D4">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" ref="D4:D14" si="27">VALUE(SUBSTITUTE(RIGHT(B4, LEN(B4) - FIND("(", B4)), _xlfn.CONCAT("-", SUBSTITUTE(RIGHT(B4, LEN(B4) - FIND("-", B4)), ")", ""), ")"), ""))</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E4">
-        <v>0.23</v>
+        <f t="shared" si="5"/>
+        <v>0.41</v>
       </c>
       <c r="F4">
-        <f t="shared" si="4"/>
-        <v>1.3000000000000002E-4</v>
+        <f t="shared" si="6"/>
+        <v>2.3999999999999998E-4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="5"/>
-        <v>7.0000000000000007E-5</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000000001E-4</v>
       </c>
       <c r="H4">
-        <f t="shared" si="6"/>
-        <v>2.3000000000000001E-4</v>
+        <f t="shared" si="8"/>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="I4">
-        <f t="shared" si="7"/>
-        <v>1.8200000000000001E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.3599999999999993E-4</v>
       </c>
       <c r="J4">
-        <f t="shared" si="8"/>
-        <v>9.800000000000001E-5</v>
+        <f t="shared" si="10"/>
+        <v>1.9600000000000002E-4</v>
       </c>
       <c r="K4">
-        <f t="shared" si="9"/>
-        <v>3.2199999999999997E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.7399999999999997E-4</v>
       </c>
       <c r="L4">
-        <f t="shared" si="10"/>
-        <v>1.8198343900466263E-4</v>
+        <f t="shared" si="12"/>
+        <v>3.3594355832167189E-4</v>
       </c>
       <c r="M4">
-        <f t="shared" si="11"/>
-        <v>3.2194816356390099E-4</v>
+        <f t="shared" si="13"/>
+        <v>5.7383529351540119E-4</v>
       </c>
       <c r="N4">
-        <f t="shared" si="12"/>
-        <v>9.7995198156897168E-5</v>
+        <f t="shared" si="14"/>
+        <v>1.9598079325489071E-4</v>
       </c>
       <c r="O4">
-        <f t="shared" si="13"/>
-        <v>5.7130858522194854E-5</v>
+        <f t="shared" si="15"/>
+        <v>9.6391454148089407E-5</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="14"/>
-        <v>10.144611094651346</v>
+        <f t="shared" si="16"/>
+        <v>12.142207023424795</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="15"/>
-        <v>55734.549247512063</v>
+        <f t="shared" si="17"/>
+        <v>36131.450139517176</v>
       </c>
       <c r="R4">
-        <f t="shared" si="16"/>
-        <v>3.367E-4</v>
+        <f t="shared" si="18"/>
+        <v>6.2159999999999993E-4</v>
       </c>
       <c r="S4">
-        <f t="shared" si="17"/>
-        <v>1.8130000000000002E-4</v>
+        <f t="shared" si="19"/>
+        <v>3.6260000000000003E-4</v>
       </c>
       <c r="T4">
-        <f t="shared" si="18"/>
-        <v>5.9570000000000001E-4</v>
+        <f t="shared" si="20"/>
+        <v>1.0619E-3</v>
       </c>
       <c r="U4">
-        <f t="shared" si="19"/>
-        <v>3.3664332291627463E-4</v>
+        <f t="shared" si="21"/>
+        <v>6.2140684674338864E-4</v>
       </c>
       <c r="V4">
-        <f t="shared" si="20"/>
-        <v>5.9552260598128015E-4</v>
+        <f t="shared" si="22"/>
+        <v>1.0613363837140843E-3</v>
       </c>
       <c r="W4">
-        <f t="shared" si="21"/>
-        <v>1.8128356614821595E-4</v>
+        <f t="shared" si="23"/>
+        <v>3.6253426856502902E-4</v>
       </c>
       <c r="X4">
-        <f t="shared" si="22"/>
-        <v>1.0567322444721026E-4</v>
+        <f t="shared" si="24"/>
+        <v>1.7826584570128964E-4</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" si="23"/>
-        <v>10.144939303492519</v>
+        <f t="shared" si="25"/>
+        <v>12.142933002577504</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" si="24"/>
-        <v>30125.427676867574</v>
+        <f t="shared" si="26"/>
+        <v>19528.892165363432</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.42</v>
+        <f t="shared" si="4"/>
+        <v>0.66</v>
       </c>
       <c r="D5">
-        <v>0.31</v>
+        <f t="shared" si="27"/>
+        <v>0.52</v>
       </c>
       <c r="E5">
-        <v>0.57999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>0.83</v>
       </c>
       <c r="F5">
-        <f t="shared" si="4"/>
-        <v>4.1999999999999996E-4</v>
+        <f t="shared" si="6"/>
+        <v>6.6E-4</v>
       </c>
       <c r="G5">
-        <f t="shared" si="5"/>
-        <v>3.1E-4</v>
+        <f t="shared" si="7"/>
+        <v>5.2000000000000006E-4</v>
       </c>
       <c r="H5">
-        <f t="shared" si="6"/>
-        <v>5.8E-4</v>
+        <f t="shared" si="8"/>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="7"/>
-        <v>5.8799999999999987E-4</v>
+        <f t="shared" si="9"/>
+        <v>9.2399999999999991E-4</v>
       </c>
       <c r="J5">
-        <f t="shared" si="8"/>
-        <v>4.3399999999999998E-4</v>
+        <f t="shared" si="10"/>
+        <v>7.2800000000000002E-4</v>
       </c>
       <c r="K5">
-        <f t="shared" si="9"/>
-        <v>8.12E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.1619999999999998E-3</v>
       </c>
       <c r="L5">
-        <f t="shared" si="10"/>
-        <v>5.878271618778852E-4</v>
+        <f t="shared" si="12"/>
+        <v>9.2357324345115899E-4</v>
       </c>
       <c r="M5">
-        <f t="shared" si="11"/>
-        <v>8.1167041721308397E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.1613251394213542E-3</v>
       </c>
       <c r="N5">
-        <f t="shared" si="12"/>
-        <v>4.3390583562297191E-4</v>
+        <f t="shared" si="14"/>
+        <v>7.2773507229306755E-4</v>
       </c>
       <c r="O5">
-        <f t="shared" si="13"/>
-        <v>9.6368515711763288E-5</v>
+        <f t="shared" si="15"/>
+        <v>1.1060971100211394E-4</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="14"/>
-        <v>37.184909522293289</v>
+        <f t="shared" si="16"/>
+        <v>69.654491082869271</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="15"/>
-        <v>63221.051412020905</v>
+        <f t="shared" si="17"/>
+        <v>75348.826475936177</v>
       </c>
       <c r="R5">
-        <f t="shared" si="16"/>
-        <v>1.0877999999999999E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.7093999999999998E-3</v>
       </c>
       <c r="S5">
-        <f t="shared" si="17"/>
-        <v>8.0289999999999995E-4</v>
+        <f t="shared" si="19"/>
+        <v>1.3468E-3</v>
       </c>
       <c r="T5">
-        <f t="shared" si="18"/>
-        <v>1.5022E-3</v>
+        <f t="shared" si="20"/>
+        <v>2.1497E-3</v>
       </c>
       <c r="U5">
-        <f t="shared" si="19"/>
-        <v>1.0872085600555081E-3</v>
+        <f t="shared" si="21"/>
+        <v>1.707939807955916E-3</v>
       </c>
       <c r="V5">
-        <f t="shared" si="20"/>
-        <v>1.5010722623465256E-3</v>
+        <f t="shared" si="22"/>
+        <v>2.1473910497681326E-3</v>
       </c>
       <c r="W5">
-        <f t="shared" si="21"/>
-        <v>8.0257776204240017E-4</v>
+        <f t="shared" si="23"/>
+        <v>1.3458934718963977E-3</v>
       </c>
       <c r="X5">
-        <f t="shared" si="22"/>
-        <v>1.7818737252656261E-4</v>
+        <f t="shared" si="24"/>
+        <v>2.0446366782442214E-4</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="23"/>
-        <v>37.186624266727186</v>
+        <f t="shared" si="25"/>
+        <v>69.656202816259778</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="24"/>
-        <v>34166.576694915195</v>
+        <f t="shared" si="26"/>
+        <v>40714.101217549272</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>1.1000000000000001</v>
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D6">
-        <v>0.87</v>
+        <f t="shared" si="27"/>
+        <v>1.9</v>
       </c>
       <c r="E6">
-        <v>1.3</v>
+        <f t="shared" si="5"/>
+        <v>2.5</v>
       </c>
       <c r="F6">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-3</v>
+        <f t="shared" si="6"/>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
-        <v>8.7000000000000001E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.9E-3</v>
       </c>
       <c r="H6">
-        <f t="shared" si="6"/>
-        <v>1.2999999999999999E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="7"/>
-        <v>1.5399999999999999E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="8"/>
-        <v>1.2179999999999999E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.66E-3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="9"/>
-        <v>1.8199999999999998E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="L6">
-        <f t="shared" si="10"/>
-        <v>1.5388148084763964E-3</v>
+        <f t="shared" si="12"/>
+        <v>3.0752616659379672E-3</v>
       </c>
       <c r="M6">
-        <f t="shared" si="11"/>
-        <v>1.8183448043043171E-3</v>
+        <f t="shared" si="13"/>
+        <v>3.4938821395851249E-3</v>
       </c>
       <c r="N6">
-        <f t="shared" si="12"/>
-        <v>1.2172585390637369E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.6564653347644906E-3</v>
       </c>
       <c r="O6">
-        <f t="shared" si="13"/>
-        <v>1.5333833296953577E-4</v>
+        <f t="shared" si="15"/>
+        <v>2.1362673592363122E-4</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="14"/>
-        <v>100.55317296974491</v>
+        <f t="shared" si="16"/>
+        <v>206.58978702027395</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="15"/>
-        <v>65244.004480010022</v>
+        <f t="shared" si="17"/>
+        <v>66971.364306607473</v>
       </c>
       <c r="R6">
-        <f t="shared" si="16"/>
-        <v>2.849E-3</v>
+        <f t="shared" si="18"/>
+        <v>5.6979999999999999E-3</v>
       </c>
       <c r="S6">
-        <f t="shared" si="17"/>
-        <v>2.2532999999999997E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.921E-3</v>
       </c>
       <c r="T6">
-        <f t="shared" si="18"/>
-        <v>3.3669999999999998E-3</v>
+        <f t="shared" si="20"/>
+        <v>6.4749999999999999E-3</v>
       </c>
       <c r="U6">
-        <f t="shared" si="19"/>
-        <v>2.8449454508840955E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.6817971871497841E-3</v>
       </c>
       <c r="V6">
-        <f t="shared" si="20"/>
-        <v>3.3613380119205116E-3</v>
+        <f t="shared" si="22"/>
+        <v>6.4540823590918395E-3</v>
       </c>
       <c r="W6">
-        <f t="shared" si="21"/>
-        <v>2.2507632252841692E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.9089117164432539E-3</v>
       </c>
       <c r="X6">
-        <f t="shared" si="22"/>
-        <v>2.8330989455008736E-4</v>
+        <f t="shared" si="24"/>
+        <v>3.94176184349129E-4</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="23"/>
-        <v>100.54831788413165</v>
+        <f t="shared" si="25"/>
+        <v>206.5875466963833</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="24"/>
-        <v>35242.244582726751</v>
+        <f t="shared" si="26"/>
+        <v>36152.955022618</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <f t="shared" si="4"/>
+        <v>6.6</v>
       </c>
       <c r="D7">
-        <v>3.1</v>
+        <f t="shared" si="27"/>
+        <v>6.1</v>
       </c>
       <c r="E7">
-        <v>4.0999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>7.1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
-        <v>3.5999999999999999E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.6E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
-        <v>3.0999999999999999E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.0999999999999995E-3</v>
       </c>
       <c r="H7">
-        <f t="shared" si="6"/>
-        <v>4.0999999999999995E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="I7">
-        <f t="shared" si="7"/>
-        <v>5.0399999999999993E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.2399999999999999E-3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="8"/>
-        <v>4.3399999999999992E-3</v>
+        <f t="shared" si="10"/>
+        <v>8.539999999999999E-3</v>
       </c>
       <c r="K7">
-        <f t="shared" si="9"/>
-        <v>5.7399999999999986E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.9399999999999992E-3</v>
       </c>
       <c r="L7">
-        <f t="shared" si="10"/>
-        <v>5.0273205104860441E-3</v>
+        <f t="shared" si="12"/>
+        <v>9.197442378342191E-3</v>
       </c>
       <c r="M7">
-        <f t="shared" si="11"/>
-        <v>5.7235576746915706E-3</v>
+        <f t="shared" si="13"/>
+        <v>9.89076147868162E-3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="12"/>
-        <v>4.3305958096476749E-3</v>
+        <f t="shared" si="14"/>
+        <v>8.503637784729623E-3</v>
       </c>
       <c r="O7">
-        <f t="shared" si="13"/>
-        <v>3.5534741455201424E-4</v>
+        <f t="shared" si="15"/>
+        <v>3.5385808519183598E-4</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="14"/>
-        <v>199.14390570981607</v>
+        <f t="shared" si="16"/>
+        <v>669.35583960689542</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="15"/>
-        <v>39413.191391878507</v>
+        <f t="shared" si="17"/>
+        <v>72106.945666023705</v>
       </c>
       <c r="R7">
-        <f t="shared" si="16"/>
-        <v>9.323999999999999E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.7093999999999998E-2</v>
       </c>
       <c r="S7">
-        <f t="shared" si="17"/>
-        <v>8.0289999999999997E-3</v>
+        <f t="shared" si="19"/>
+        <v>1.5798999999999997E-2</v>
       </c>
       <c r="T7">
-        <f t="shared" si="18"/>
-        <v>1.0618999999999998E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.8388999999999999E-2</v>
       </c>
       <c r="U7">
-        <f t="shared" si="19"/>
-        <v>9.2806662977288346E-3</v>
+        <f t="shared" si="21"/>
+        <v>1.6948726528053348E-2</v>
       </c>
       <c r="V7">
-        <f t="shared" si="20"/>
-        <v>1.0562817462810514E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.8220953982126531E-2</v>
       </c>
       <c r="W7">
-        <f t="shared" si="21"/>
-        <v>7.9968536713242999E-3</v>
+        <f t="shared" si="23"/>
+        <v>1.5674850472187862E-2</v>
       </c>
       <c r="X7">
-        <f t="shared" si="22"/>
-        <v>6.5458259986893221E-4</v>
+        <f t="shared" si="24"/>
+        <v>6.4951620151496654E-4</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="23"/>
-        <v>199.14059479245071</v>
+        <f t="shared" si="25"/>
+        <v>669.35936044035282</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="24"/>
-        <v>21258.43458396216</v>
+        <f t="shared" si="26"/>
+        <v>38823.835560867534</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>8.4</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>7.7</v>
+        <f t="shared" si="27"/>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>9.1</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
-        <v>8.4000000000000012E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.2E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
-        <v>7.7000000000000002E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
-        <v>9.1000000000000004E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="7"/>
-        <v>1.1760000000000001E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="8"/>
-        <v>1.078E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.5399999999999999E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="9"/>
-        <v>1.274E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.8199999999999997E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="10"/>
-        <v>1.1691121468240584E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.6659666963978803E-2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="11"/>
-        <v>1.2659189738271737E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.8035380206259721E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" si="12"/>
-        <v>1.0722104026286594E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.5282026374330182E-2</v>
       </c>
       <c r="O8">
-        <f t="shared" si="13"/>
-        <v>4.9415451836355674E-4</v>
+        <f t="shared" si="15"/>
+        <v>7.0238618161467842E-4</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="14"/>
-        <v>553.18490721990418</v>
+        <f t="shared" si="16"/>
+        <v>553.1863900675811</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="15"/>
-        <v>46763.482593212277</v>
+        <f t="shared" si="17"/>
+        <v>32651.942575815687</v>
       </c>
       <c r="R8">
-        <f t="shared" si="16"/>
-        <v>2.1756000000000001E-2</v>
+        <f t="shared" si="18"/>
+        <v>3.108E-2</v>
       </c>
       <c r="S8">
-        <f t="shared" si="17"/>
-        <v>1.9942999999999999E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.8489999999999998E-2</v>
       </c>
       <c r="T8">
-        <f t="shared" si="18"/>
-        <v>2.3569E-2</v>
+        <f t="shared" si="20"/>
+        <v>3.3669999999999999E-2</v>
       </c>
       <c r="U8">
-        <f t="shared" si="19"/>
-        <v>2.1521045208813594E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.0601981867581007E-2</v>
       </c>
       <c r="V8">
-        <f t="shared" si="20"/>
-        <v>2.3293420410251398E-2</v>
+        <f t="shared" si="22"/>
+        <v>3.310947413035481E-2</v>
       </c>
       <c r="W8">
-        <f t="shared" si="21"/>
-        <v>1.9745453776503163E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.8087986782326713E-2</v>
       </c>
       <c r="X8">
-        <f t="shared" si="22"/>
-        <v>9.0509352901740664E-4</v>
+        <f t="shared" si="24"/>
+        <v>1.2809916704153311E-3</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="23"/>
-        <v>553.19009300530911</v>
+        <f t="shared" si="25"/>
+        <v>553.20309268015637</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="24"/>
-        <v>25151.420795445363</v>
+        <f t="shared" si="26"/>
+        <v>17524.158532914629</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <f t="shared" si="27"/>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.02</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
-        <v>1.2999999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
-        <v>1.6E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
-        <v>2.0999999999999998E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="8"/>
-        <v>1.8199999999999997E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="9"/>
-        <v>2.24E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.0799999999999998E-2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="10"/>
-        <v>2.078103543054044E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.7611633198753149E-2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="11"/>
-        <v>2.2150982794025165E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.0330512418554667E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="12"/>
-        <v>1.8035380206259721E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.6249336099770648E-2</v>
       </c>
       <c r="O9">
-        <f t="shared" si="13"/>
-        <v>1.0498986193279193E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.0411164078530661E-3</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="14"/>
-        <v>383.61530565639237</v>
+        <f t="shared" si="16"/>
+        <v>683.92397837990757</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="15"/>
-        <v>18076.259176469735</v>
+        <f t="shared" si="17"/>
+        <v>24085.490183285521</v>
       </c>
       <c r="R9">
-        <f t="shared" si="16"/>
-        <v>3.8849999999999996E-2</v>
+        <f t="shared" si="18"/>
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="S9">
-        <f t="shared" si="17"/>
-        <v>3.3669999999999999E-2</v>
+        <f t="shared" si="19"/>
+        <v>4.9209999999999997E-2</v>
       </c>
       <c r="T9">
-        <f t="shared" si="18"/>
-        <v>4.1439999999999998E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.6979999999999996E-2</v>
       </c>
       <c r="U9">
-        <f t="shared" si="19"/>
-        <v>3.8105017427024879E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.0481248395898626E-2</v>
       </c>
       <c r="V9">
-        <f t="shared" si="20"/>
-        <v>4.0593101971543866E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.5387038563169289E-2</v>
       </c>
       <c r="W9">
-        <f t="shared" si="21"/>
-        <v>3.310947413035481E-2</v>
+        <f t="shared" si="23"/>
+        <v>4.8018807344607506E-2</v>
       </c>
       <c r="X9">
-        <f t="shared" si="22"/>
-        <v>1.909088734997208E-3</v>
+        <f t="shared" si="24"/>
+        <v>1.8796508210616792E-3</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="23"/>
-        <v>383.17447587379598</v>
+        <f t="shared" si="25"/>
+        <v>684.82144009413469</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="24"/>
-        <v>9672.574130136305</v>
+        <f t="shared" si="26"/>
+        <v>12881.036415152039</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <f t="shared" si="27"/>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
+        <f t="shared" si="6"/>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
-        <v>2.1999999999999999E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
-        <v>2.7999999999999997E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="8"/>
-        <v>2.5199999999999997E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.6399999999999995E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="9"/>
-        <v>3.0799999999999998E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="10"/>
-        <v>2.7611633198753149E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.9786861603652413E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="11"/>
-        <v>3.0330512418554667E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.5149027102157624E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="12"/>
-        <v>2.4885130449175064E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.5745485473335226E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="13"/>
-        <v>1.3891280534131642E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.3988626604138771E-3</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="14"/>
-        <v>384.15648347389657</v>
+        <f t="shared" si="16"/>
+        <v>264.10147096840853</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="15"/>
-        <v>13528.692521460873</v>
+        <f t="shared" si="17"/>
+        <v>6373.8051224022074</v>
       </c>
       <c r="R10">
-        <f t="shared" si="16"/>
-        <v>5.1799999999999999E-2</v>
+        <f t="shared" si="18"/>
+        <v>7.5109999999999996E-2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="17"/>
-        <v>4.6619999999999995E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.7339999999999997E-2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="18"/>
-        <v>5.6979999999999996E-2</v>
+        <f t="shared" si="20"/>
+        <v>8.5470000000000004E-2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="19"/>
-        <v>5.0481248395898626E-2</v>
+        <f t="shared" si="21"/>
+        <v>7.2358559842300996E-2</v>
       </c>
       <c r="V10">
-        <f t="shared" si="20"/>
-        <v>5.5387038563169289E-2</v>
+        <f t="shared" si="22"/>
+        <v>8.1919314938421417E-2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="21"/>
-        <v>4.5549980304708138E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.5122710983520959E-2</v>
       </c>
       <c r="X10">
-        <f t="shared" si="22"/>
-        <v>2.5094536373625386E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.2848479476786886E-3</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="23"/>
-        <v>384.19198916328071</v>
+        <f t="shared" si="25"/>
+        <v>264.46629584614266</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="24"/>
-        <v>7226.3961276411874</v>
+        <f t="shared" si="26"/>
+        <v>3390.4751018616512</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <f t="shared" si="27"/>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>51</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
-        <v>1.6E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
-        <v>1.2E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
-        <v>2.1999999999999999E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
-        <v>2.24E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.0399999999999993E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="8"/>
-        <v>1.6799999999999999E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.4999999999999996E-2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="9"/>
-        <v>3.0799999999999998E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.1399999999999991E-2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="10"/>
-        <v>2.2150982794025165E-2</v>
+        <f t="shared" si="12"/>
+        <v>4.9150991180877734E-2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="11"/>
-        <v>3.0330512418554667E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.8910618122242195E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="12"/>
-        <v>1.6659666963978803E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.4394583742433538E-2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="13"/>
-        <v>3.487460575146904E-3</v>
+        <f t="shared" si="15"/>
+        <v>8.8051108111756784E-3</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="14"/>
-        <v>39.427138870584209</v>
+        <f t="shared" si="16"/>
+        <v>29.579130823637872</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="15"/>
-        <v>1740.5001554262169</v>
+        <f t="shared" si="17"/>
+        <v>572.22217802047919</v>
       </c>
       <c r="R11">
-        <f t="shared" si="16"/>
-        <v>4.1439999999999998E-2</v>
+        <f t="shared" si="18"/>
+        <v>9.323999999999999E-2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="17"/>
-        <v>3.108E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.4750000000000002E-2</v>
       </c>
       <c r="T11">
-        <f t="shared" si="18"/>
-        <v>5.6979999999999996E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.13208999999999999</v>
       </c>
       <c r="U11">
-        <f t="shared" si="19"/>
-        <v>4.0593101971543866E-2</v>
+        <f t="shared" si="21"/>
+        <v>8.9025159903657003E-2</v>
       </c>
       <c r="V11">
-        <f t="shared" si="20"/>
-        <v>5.5387038563169289E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.12373787206110931</v>
       </c>
       <c r="W11">
-        <f t="shared" si="21"/>
-        <v>3.0601981867581007E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.2698240470953515E-2</v>
       </c>
       <c r="X11">
-        <f t="shared" si="22"/>
-        <v>6.3227185447929293E-3</v>
+        <f t="shared" si="24"/>
+        <v>1.5571334589325459E-2</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="23"/>
-        <v>39.505138712288492</v>
+        <f t="shared" si="25"/>
+        <v>29.687926363478368</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="24"/>
-        <v>933.69318301197768</v>
+        <f t="shared" si="26"/>
+        <v>303.79000724098393</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>100</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D12">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
@@ -4934,31 +5136,31 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
@@ -4972,53 +5174,59 @@
       <c r="A13">
         <v>110</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D13">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P13" s="1">
@@ -5028,31 +5236,31 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y13" s="1">
@@ -5066,53 +5274,59 @@
       <c r="A14">
         <v>120</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C14">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D14">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E14">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P14" s="1">
@@ -5122,31 +5336,31 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y14" s="1">
